--- a/biology/Botanique/Stara_maslina/Stara_maslina.xlsx
+++ b/biology/Botanique/Stara_maslina/Stara_maslina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Stara maslina est un olivier situé à Stari Bar, au Monténégro. Stara maslina signifie vieil olivier en français. Il est vieux de plus de 2 000 ans et est considéré comme un des plus vieux arbres d’Europe[1].
+Stara maslina est un olivier situé à Stari Bar, au Monténégro. Stara maslina signifie vieil olivier en français. Il est vieux de plus de 2 000 ans et est considéré comme un des plus vieux arbres d’Europe.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le volume du tronc est de 10 m3[2].
-L'arbre bénéficie d'une protection par la loi depuis 1963[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le volume du tronc est de 10 m3.
+L'arbre bénéficie d'une protection par la loi depuis 1963.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Légende</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une légende raconte que lors des disputes familiales, une réunion sous l'arbre permettait une réconciliation[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une légende raconte que lors des disputes familiales, une réunion sous l'arbre permettait une réconciliation.
 </t>
         </is>
       </c>
